--- a/doc/外部設計/04_外部設計書（ログイン）_チーム名.xlsx
+++ b/doc/外部設計/04_外部設計書（ログイン）_チーム名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C57B57B9-D2E1-4EB1-AF3C-DEA14F4BEBA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53CD37A-AC43-4BA5-B38C-C9E9E1231177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3850" yWindow="150" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -197,23 +197,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>login</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>pw</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>pw_check</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>login_result_false</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>register</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -226,13 +210,6 @@
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パスワード表示</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -252,10 +229,6 @@
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>button</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -281,39 +254,152 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「２．ログイン」はユーザーから取得したIDの照合を行う</t>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
+    <t>2と3の照合が成功した場合はホーム画面に遷移</t>
+    <rPh sb="4" eb="6">
       <t>ショウゴウ</t>
     </rPh>
-    <rPh sb="25" eb="26">
-      <t>オコナ</t>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「3．パスワード」はユーザーから取得したパスワードの照合を行う</t>
+    <t>2と3の照合が失敗した場合は「5.エラーメッセージ」の内容を表示</t>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※パスワードは入力された際、文字が隠されて表示される</t>
-    <rPh sb="7" eb="9">
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>宮野拓海</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タクミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pw確認ボタン</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>checkbox</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>syuudeen</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「6.ログインボタン」をタップしたとき</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「7．新規登録リンク」をタップしたとき</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「２．ID」をタップしたとき、ユーザーIDが入力出来る</t>
+    <rPh sb="22" eb="24">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="24" eb="26">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「3．パスワード」をタップしたとき、パスワードが入力出来る</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「4.pw確認ボタン」をタップしたとき
+「4.1pw確認ボタン（閉じているとき）」をクリックしない状態の時「＊」表示になる
+pw確認ボタンをクリックした時にpw本体が表示される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※失敗した際は、IDの情報をパラメタに保存し表示できるようにする。</t>
+    <rPh sb="1" eb="3">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>サイ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="17" eb="18">
-      <t>カク</t>
+    <rPh sb="19" eb="21">
+      <t>ホゾン</t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="22" eb="24">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pw_check_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -739,24 +825,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,9 +855,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -807,6 +872,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,8 +924,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>164630</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>188147</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>330</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -854,8 +940,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3321992" y="1828563"/>
-          <a:ext cx="3416064" cy="4756621"/>
+          <a:off x="3337279" y="1849730"/>
+          <a:ext cx="3431351" cy="4818100"/>
           <a:chOff x="4615647" y="5354217"/>
           <a:chExt cx="2629192" cy="3912110"/>
         </a:xfrm>
@@ -956,13 +1042,18 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>ログイン</a:t>
+              <a:t>ID</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1075,7 +1166,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>登録</a:t>
+              <a:t>ログイン</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1351,23 +1442,7 @@
                   <a:srgbClr val="FF5050"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>かパスワードが間違っている可能性が</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF5050"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF5050"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>あります！</a:t>
+              <a:t>かパスワードが間違っています！</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1578,7 +1653,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>134290</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="549438" cy="530658"/>
+    <xdr:ext cx="687680" cy="530658"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="テキスト ボックス 16">
@@ -1592,8 +1667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6078598" y="3709105"/>
-          <a:ext cx="549438" cy="530658"/>
+          <a:off x="6106820" y="3753790"/>
+          <a:ext cx="687680" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1626,7 +1701,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>4.1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
             <a:solidFill>
@@ -1828,6 +1903,126 @@
               </a:solidFill>
             </a:rPr>
             <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="グラフィックス 17" descr="目 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F477A00-54DC-4D4D-BC1E-BAF38103743D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6089650" y="4565650"/>
+          <a:ext cx="412750" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>137820</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108890</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="687680" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637A05CF-8CAD-4231-8C49-448152C4BA27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5979820" y="4871390"/>
+          <a:ext cx="687680" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
             <a:solidFill>
@@ -2165,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2175,146 +2370,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -3701,7 +3902,7 @@
       <c r="AM38" s="11"/>
       <c r="AN38" s="7"/>
     </row>
-    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3743,7 +3944,7 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="11"/>
     </row>
-    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3785,7 +3986,7 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="5"/>
     </row>
-    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -3829,7 +4030,7 @@
       <c r="AM41" s="5"/>
       <c r="AN41" s="7"/>
     </row>
-    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
@@ -3871,7 +4072,7 @@
       <c r="AM42" s="7"/>
       <c r="AN42" s="7"/>
     </row>
-    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
@@ -3915,7 +4116,7 @@
       <c r="AM43" s="7"/>
       <c r="AN43" s="7"/>
     </row>
-    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
@@ -3957,13 +4158,13 @@
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
     </row>
-    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -4001,13 +4202,13 @@
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
     </row>
-    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -4045,13 +4246,13 @@
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
     </row>
-    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -4089,11 +4290,11 @@
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
     </row>
-    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="E48" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -4131,11 +4332,11 @@
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
     </row>
-    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="E49" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -4173,10 +4374,12 @@
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
     </row>
-    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -4213,10 +4416,12 @@
       <c r="AM50" s="7"/>
       <c r="AN50" s="7"/>
     </row>
-    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -4253,10 +4458,12 @@
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
     </row>
-    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -4293,10 +4500,12 @@
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
     </row>
-    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -4333,10 +4542,12 @@
       <c r="AM53" s="7"/>
       <c r="AN53" s="7"/>
     </row>
-    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -4373,10 +4584,12 @@
       <c r="AM54" s="7"/>
       <c r="AN54" s="7"/>
     </row>
-    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -4413,7 +4626,7 @@
       <c r="AM55" s="7"/>
       <c r="AN55" s="7"/>
     </row>
-    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="E56" s="8"/>
@@ -4453,7 +4666,7 @@
       <c r="AM56" s="7"/>
       <c r="AN56" s="7"/>
     </row>
-    <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="E57" s="8"/>
@@ -4493,7 +4706,7 @@
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
     </row>
-    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="E58" s="8"/>
@@ -4533,7 +4746,7 @@
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
     </row>
-    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="E59" s="8"/>
@@ -4573,7 +4786,7 @@
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
     </row>
-    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="E60" s="8"/>
@@ -4613,7 +4826,7 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
     </row>
-    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="E61" s="8"/>
@@ -4653,7 +4866,7 @@
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
     </row>
-    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="E62" s="8"/>
@@ -4693,7 +4906,7 @@
       <c r="AM62" s="7"/>
       <c r="AN62" s="7"/>
     </row>
-    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="E63" s="8"/>
@@ -4733,7 +4946,7 @@
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
     </row>
-    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="E64" s="8"/>
@@ -4773,7 +4986,7 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
     </row>
-    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="E65" s="8"/>
@@ -4813,7 +5026,7 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
     </row>
-    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="E66" s="8"/>
@@ -4853,7 +5066,7 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
     </row>
-    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="8"/>
@@ -4893,7 +5106,7 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
     </row>
-    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="E68" s="8"/>
@@ -4933,7 +5146,7 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
     </row>
-    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="8"/>
@@ -4973,7 +5186,7 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
     </row>
-    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="E70" s="8"/>
@@ -5013,7 +5226,7 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="E71" s="8"/>
@@ -5053,7 +5266,7 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
@@ -5095,7 +5308,7 @@
       <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
@@ -5137,7 +5350,7 @@
       <c r="AM73" s="11"/>
       <c r="AN73" s="7"/>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5179,7 +5392,7 @@
       <c r="AM74" s="10"/>
       <c r="AN74" s="11"/>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5221,7 +5434,7 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="5"/>
     </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="3" t="s">
         <v>10</v>
@@ -5265,7 +5478,7 @@
       <c r="AM76" s="5"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="2"/>
@@ -5307,7 +5520,7 @@
       <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="12" t="s">
         <v>11</v>
@@ -5369,7 +5582,7 @@
       <c r="AM78" s="18"/>
       <c r="AN78" s="7"/>
     </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
       <c r="C79" s="13">
@@ -5419,44 +5632,50 @@
       <c r="AM79" s="18"/>
       <c r="AN79" s="7"/>
     </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
       <c r="C80" s="13">
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
       <c r="S80" s="14"/>
       <c r="T80" s="17"/>
-      <c r="U80" s="14"/>
+      <c r="U80" s="14">
+        <v>12</v>
+      </c>
       <c r="V80" s="17"/>
-      <c r="W80" s="14"/>
+      <c r="W80" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
-      <c r="AA80" s="14"/>
+      <c r="AA80" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
       <c r="AD80" s="14"/>
@@ -5471,44 +5690,50 @@
       <c r="AM80" s="18"/>
       <c r="AN80" s="7"/>
     </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
       <c r="C81" s="13">
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
       <c r="S81" s="14"/>
       <c r="T81" s="17"/>
-      <c r="U81" s="14"/>
+      <c r="U81" s="14">
+        <v>20</v>
+      </c>
       <c r="V81" s="17"/>
-      <c r="W81" s="14"/>
+      <c r="W81" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="14"/>
+      <c r="AA81" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
       <c r="AD81" s="14"/>
@@ -5523,26 +5748,26 @@
       <c r="AM81" s="18"/>
       <c r="AN81" s="7"/>
     </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
       <c r="C82" s="13">
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -5573,32 +5798,30 @@
       <c r="AM82" s="18"/>
       <c r="AN82" s="7"/>
     </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
       <c r="C83" s="13">
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="O83" s="14"/>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="17"/>
@@ -5625,26 +5848,26 @@
       <c r="AM83" s="18"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
       <c r="C84" s="13">
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -5675,26 +5898,26 @@
       <c r="AM84" s="18"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
       <c r="C85" s="13">
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
@@ -5725,7 +5948,7 @@
       <c r="AM85" s="18"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
       <c r="C86" s="13"/>
@@ -5767,7 +5990,7 @@
       <c r="AM86" s="18"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
@@ -5809,7 +6032,7 @@
       <c r="AM87" s="18"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
       <c r="C88" s="13"/>
@@ -5851,7 +6074,7 @@
       <c r="AM88" s="18"/>
       <c r="AN88" s="7"/>
     </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
@@ -5893,7 +6116,7 @@
       <c r="AM89" s="18"/>
       <c r="AN89" s="7"/>
     </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
@@ -5935,7 +6158,7 @@
       <c r="AM90" s="18"/>
       <c r="AN90" s="7"/>
     </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
@@ -5977,7 +6200,7 @@
       <c r="AM91" s="18"/>
       <c r="AN91" s="7"/>
     </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
@@ -6019,7 +6242,7 @@
       <c r="AM92" s="18"/>
       <c r="AN92" s="7"/>
     </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="12"/>
       <c r="C93" s="13"/>
@@ -6061,7 +6284,7 @@
       <c r="AM93" s="18"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="12"/>
       <c r="C94" s="13"/>
@@ -6103,7 +6326,7 @@
       <c r="AM94" s="18"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="12"/>
       <c r="C95" s="13"/>
@@ -6145,7 +6368,7 @@
       <c r="AM95" s="18"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="12"/>
       <c r="C96" s="13"/>
@@ -6187,7 +6410,7 @@
       <c r="AM96" s="18"/>
       <c r="AN96" s="7"/>
     </row>
-    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="12"/>
       <c r="C97" s="13"/>
@@ -6229,7 +6452,7 @@
       <c r="AM97" s="18"/>
       <c r="AN97" s="7"/>
     </row>
-    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="12"/>
       <c r="C98" s="13"/>
@@ -6271,7 +6494,7 @@
       <c r="AM98" s="18"/>
       <c r="AN98" s="7"/>
     </row>
-    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="12"/>
       <c r="C99" s="13"/>
@@ -6313,7 +6536,7 @@
       <c r="AM99" s="18"/>
       <c r="AN99" s="7"/>
     </row>
-    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="12"/>
       <c r="C100" s="13"/>
@@ -6355,7 +6578,7 @@
       <c r="AM100" s="18"/>
       <c r="AN100" s="7"/>
     </row>
-    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="12"/>
       <c r="C101" s="13"/>
@@ -6397,7 +6620,7 @@
       <c r="AM101" s="18"/>
       <c r="AN101" s="7"/>
     </row>
-    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="12"/>
       <c r="C102" s="13"/>
@@ -6439,7 +6662,7 @@
       <c r="AM102" s="18"/>
       <c r="AN102" s="7"/>
     </row>
-    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
@@ -6481,7 +6704,7 @@
       <c r="AM103" s="18"/>
       <c r="AN103" s="7"/>
     </row>
-    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="12"/>
       <c r="C104" s="13"/>
@@ -6523,7 +6746,7 @@
       <c r="AM104" s="18"/>
       <c r="AN104" s="7"/>
     </row>
-    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="12"/>
       <c r="C105" s="13"/>
@@ -6565,7 +6788,7 @@
       <c r="AM105" s="18"/>
       <c r="AN105" s="7"/>
     </row>
-    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="12"/>
       <c r="C106" s="13"/>
@@ -6607,7 +6830,7 @@
       <c r="AM106" s="18"/>
       <c r="AN106" s="7"/>
     </row>
-    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
@@ -6649,7 +6872,7 @@
       <c r="AM107" s="18"/>
       <c r="AN107" s="7"/>
     </row>
-    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="12"/>
       <c r="C108" s="13"/>
@@ -6691,7 +6914,7 @@
       <c r="AM108" s="18"/>
       <c r="AN108" s="7"/>
     </row>
-    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
